--- a/data/robothor_to_cifar.xlsx
+++ b/data/robothor_to_cifar.xlsx
@@ -325,301 +325,301 @@
     <t>worm</t>
   </si>
   <si>
+    <t>2_apple</t>
+  </si>
+  <si>
+    <t>1_fork</t>
+  </si>
+  <si>
+    <t>1_chair</t>
+  </si>
+  <si>
+    <t>1_tvstand</t>
+  </si>
+  <si>
+    <t>2_baseballbat</t>
+  </si>
+  <si>
+    <t>1_bed</t>
+  </si>
+  <si>
+    <t>1_candle</t>
+  </si>
+  <si>
+    <t>2_plate</t>
+  </si>
+  <si>
+    <t>2_chair</t>
+  </si>
+  <si>
+    <t>1_bottle</t>
+  </si>
+  <si>
+    <t>2_bowl</t>
+  </si>
+  <si>
+    <t>2_newspaper</t>
+  </si>
+  <si>
+    <t>2_statue</t>
+  </si>
+  <si>
+    <t>2_alarmclock</t>
+  </si>
+  <si>
+    <t>1_plate</t>
+  </si>
+  <si>
+    <t>1_pencil</t>
+  </si>
+  <si>
+    <t>2_garbagecan</t>
+  </si>
+  <si>
+    <t>2_painting</t>
+  </si>
+  <si>
+    <t>2_houseplant</t>
+  </si>
+  <si>
+    <t>2_pen</t>
+  </si>
+  <si>
+    <t>3_chair</t>
+  </si>
+  <si>
+    <t>3_baseballbat</t>
+  </si>
+  <si>
+    <t>1_alarmclock</t>
+  </si>
+  <si>
+    <t>2_pillow</t>
+  </si>
+  <si>
+    <t>1_desk</t>
+  </si>
+  <si>
+    <t>1_sofa</t>
+  </si>
+  <si>
+    <t>1_bowl</t>
+  </si>
+  <si>
     <t>1_apple</t>
   </si>
   <si>
-    <t>1_fork</t>
-  </si>
-  <si>
-    <t>1_teddybear</t>
-  </si>
-  <si>
-    <t>2_teddybear</t>
+    <t>2_cup</t>
+  </si>
+  <si>
+    <t>2_pencil</t>
+  </si>
+  <si>
+    <t>3_bowl</t>
+  </si>
+  <si>
+    <t>3_statue</t>
+  </si>
+  <si>
+    <t>2_pot</t>
+  </si>
+  <si>
+    <t>3_apple</t>
+  </si>
+  <si>
+    <t>2_television</t>
+  </si>
+  <si>
+    <t>2_laptop</t>
+  </si>
+  <si>
+    <t>3_pen</t>
+  </si>
+  <si>
+    <t>1_houseplant</t>
   </si>
   <si>
     <t>1_baseballbat</t>
   </si>
   <si>
-    <t>1_bed</t>
-  </si>
-  <si>
-    <t>1_candle</t>
-  </si>
-  <si>
-    <t>1_plate</t>
-  </si>
-  <si>
-    <t>1_chair</t>
-  </si>
-  <si>
-    <t>1_bottle</t>
-  </si>
-  <si>
-    <t>1_bowl</t>
+    <t>1_laptop</t>
+  </si>
+  <si>
+    <t>2_desklamp</t>
+  </si>
+  <si>
+    <t>3_sofa</t>
+  </si>
+  <si>
+    <t>3_laptop</t>
+  </si>
+  <si>
+    <t>1_statue</t>
+  </si>
+  <si>
+    <t>3_houseplant</t>
+  </si>
+  <si>
+    <t>2_spraybottle</t>
+  </si>
+  <si>
+    <t>3_mug</t>
+  </si>
+  <si>
+    <t>1_dresser</t>
+  </si>
+  <si>
+    <t>1_painting</t>
+  </si>
+  <si>
+    <t>1_shelf</t>
+  </si>
+  <si>
+    <t>3_remotecontrol</t>
+  </si>
+  <si>
+    <t>2_book</t>
+  </si>
+  <si>
+    <t>1_armchair</t>
+  </si>
+  <si>
+    <t>2_cellphone</t>
+  </si>
+  <si>
+    <t>1_vase</t>
+  </si>
+  <si>
+    <t>1_cellphone</t>
+  </si>
+  <si>
+    <t>2_remotecontrol</t>
+  </si>
+  <si>
+    <t>2_vase</t>
+  </si>
+  <si>
+    <t>2_box</t>
+  </si>
+  <si>
+    <t>1_drawer</t>
+  </si>
+  <si>
+    <t>1_box</t>
+  </si>
+  <si>
+    <t>1_sidetable</t>
+  </si>
+  <si>
+    <t>1_pot</t>
+  </si>
+  <si>
+    <t>1_pillow</t>
+  </si>
+  <si>
+    <t>1_tennisracket</t>
+  </si>
+  <si>
+    <t>1_desklamp</t>
+  </si>
+  <si>
+    <t>2_tennisracket</t>
+  </si>
+  <si>
+    <t>3_desklamp</t>
+  </si>
+  <si>
+    <t>1_basketball</t>
+  </si>
+  <si>
+    <t>1_spraybottle</t>
+  </si>
+  <si>
+    <t>3_vase</t>
+  </si>
+  <si>
+    <t>2_sofa</t>
+  </si>
+  <si>
+    <t>3_spraybottle</t>
+  </si>
+  <si>
+    <t>1_coffeetable</t>
+  </si>
+  <si>
+    <t>3_tennisracket</t>
+  </si>
+  <si>
+    <t>2_candle</t>
   </si>
   <si>
     <t>1_newspaper</t>
   </si>
   <si>
-    <t>1_statue</t>
-  </si>
-  <si>
-    <t>1_alarmclock</t>
-  </si>
-  <si>
-    <t>2_plate</t>
-  </si>
-  <si>
-    <t>1_pencil</t>
+    <t>3_box</t>
+  </si>
+  <si>
+    <t>1_remotecontrol</t>
+  </si>
+  <si>
+    <t>1_diningtable</t>
+  </si>
+  <si>
+    <t>3_drawer</t>
+  </si>
+  <si>
+    <t>2_armchair</t>
+  </si>
+  <si>
+    <t>3_painting</t>
   </si>
   <si>
     <t>1_garbagecan</t>
   </si>
   <si>
-    <t>1_painting</t>
-  </si>
-  <si>
-    <t>1_houseplant</t>
-  </si>
-  <si>
-    <t>1_pen</t>
-  </si>
-  <si>
-    <t>2_chair</t>
-  </si>
-  <si>
-    <t>2_baseballbat</t>
-  </si>
-  <si>
-    <t>2_alarmclock</t>
-  </si>
-  <si>
-    <t>1_pillow</t>
-  </si>
-  <si>
-    <t>1_desk</t>
-  </si>
-  <si>
-    <t>1_sofa</t>
-  </si>
-  <si>
-    <t>3_chair</t>
-  </si>
-  <si>
-    <t>2_apple</t>
+    <t>3_armchair</t>
+  </si>
+  <si>
+    <t>1_shelvingunit</t>
+  </si>
+  <si>
+    <t>1_television</t>
+  </si>
+  <si>
+    <t>3_television</t>
+  </si>
+  <si>
+    <t>1_cd</t>
+  </si>
+  <si>
+    <t>3_garbagecan</t>
+  </si>
+  <si>
+    <t>3_alarmclock</t>
+  </si>
+  <si>
+    <t>1_book</t>
+  </si>
+  <si>
+    <t>2_mug</t>
+  </si>
+  <si>
+    <t>1_mug</t>
+  </si>
+  <si>
+    <t>2_drawer</t>
+  </si>
+  <si>
+    <t>3_candle</t>
+  </si>
+  <si>
+    <t>3_pillow</t>
+  </si>
+  <si>
+    <t>3_book</t>
   </si>
   <si>
     <t>1_cup</t>
-  </si>
-  <si>
-    <t>2_pencil</t>
-  </si>
-  <si>
-    <t>2_bowl</t>
-  </si>
-  <si>
-    <t>2_statue</t>
-  </si>
-  <si>
-    <t>1_pot</t>
-  </si>
-  <si>
-    <t>3_apple</t>
-  </si>
-  <si>
-    <t>1_television</t>
-  </si>
-  <si>
-    <t>1_butterknife</t>
-  </si>
-  <si>
-    <t>1_peppershaker</t>
-  </si>
-  <si>
-    <t>2_houseplant</t>
-  </si>
-  <si>
-    <t>3_baseballbat</t>
-  </si>
-  <si>
-    <t>1_laptop</t>
-  </si>
-  <si>
-    <t>1_desklamp</t>
-  </si>
-  <si>
-    <t>1_saltshaker</t>
-  </si>
-  <si>
-    <t>2_laptop</t>
-  </si>
-  <si>
-    <t>1_tvstand</t>
-  </si>
-  <si>
-    <t>2_newspaper</t>
-  </si>
-  <si>
-    <t>2_peppershaker</t>
-  </si>
-  <si>
-    <t>1_mug</t>
-  </si>
-  <si>
-    <t>1_dresser</t>
-  </si>
-  <si>
-    <t>2_painting</t>
-  </si>
-  <si>
-    <t>1_shelf</t>
-  </si>
-  <si>
-    <t>2_pen</t>
-  </si>
-  <si>
-    <t>1_book</t>
-  </si>
-  <si>
-    <t>2_dresser</t>
-  </si>
-  <si>
-    <t>1_cellphone</t>
-  </si>
-  <si>
-    <t>1_vase</t>
-  </si>
-  <si>
-    <t>2_cellphone</t>
-  </si>
-  <si>
-    <t>2_saltshaker</t>
-  </si>
-  <si>
-    <t>2_vase</t>
-  </si>
-  <si>
-    <t>2_bed</t>
-  </si>
-  <si>
-    <t>1_drawer</t>
-  </si>
-  <si>
-    <t>1_box</t>
-  </si>
-  <si>
-    <t>3_bowl</t>
-  </si>
-  <si>
-    <t>2_pot</t>
-  </si>
-  <si>
-    <t>2_pillow</t>
-  </si>
-  <si>
-    <t>1_tennisracket</t>
-  </si>
-  <si>
-    <t>2_desklamp</t>
-  </si>
-  <si>
-    <t>2_tennisracket</t>
-  </si>
-  <si>
-    <t>3_desklamp</t>
-  </si>
-  <si>
-    <t>1_basketball</t>
-  </si>
-  <si>
-    <t>1_spraybottle</t>
-  </si>
-  <si>
-    <t>2_candle</t>
-  </si>
-  <si>
-    <t>2_sofa</t>
-  </si>
-  <si>
-    <t>2_spraybottle</t>
-  </si>
-  <si>
-    <t>1_coffeetable</t>
-  </si>
-  <si>
-    <t>3_candle</t>
-  </si>
-  <si>
-    <t>1_remotecontrol</t>
-  </si>
-  <si>
-    <t>3_cellphone</t>
-  </si>
-  <si>
-    <t>2_box</t>
-  </si>
-  <si>
-    <t>2_remotecontrol</t>
-  </si>
-  <si>
-    <t>1_diningtable</t>
-  </si>
-  <si>
-    <t>2_drawer</t>
-  </si>
-  <si>
-    <t>1_armchair</t>
-  </si>
-  <si>
-    <t>3_alarmclock</t>
-  </si>
-  <si>
-    <t>2_garbagecan</t>
-  </si>
-  <si>
-    <t>1_sidetable</t>
-  </si>
-  <si>
-    <t>1_shelvingunit</t>
-  </si>
-  <si>
-    <t>2_television</t>
-  </si>
-  <si>
-    <t>1_watch</t>
-  </si>
-  <si>
-    <t>2_armchair</t>
-  </si>
-  <si>
-    <t>2_coffeetable</t>
-  </si>
-  <si>
-    <t>2_watch</t>
-  </si>
-  <si>
-    <t>1_cd</t>
-  </si>
-  <si>
-    <t>2_mug</t>
-  </si>
-  <si>
-    <t>3_drawer</t>
-  </si>
-  <si>
-    <t>3_armchair</t>
-  </si>
-  <si>
-    <t>2_cup</t>
-  </si>
-  <si>
-    <t>3_box</t>
-  </si>
-  <si>
-    <t>2_book</t>
-  </si>
-  <si>
-    <t>3_book</t>
   </si>
   <si>
     <t>3_cup</t>
